--- a/P0006/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0006/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0006\09_FICHAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0006/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29F4142-AB58-402A-8DBE-4A1C5839502A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{B29F4142-AB58-402A-8DBE-4A1C5839502A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02F36A39-7215-45C0-9803-B24E70657762}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4605" yWindow="1485" windowWidth="18435" windowHeight="6690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,78 +36,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+  <si>
+    <t>CODIGO DE PROYECTO</t>
+  </si>
+  <si>
+    <t>CODIGO DE PRODUCTO</t>
+  </si>
+  <si>
+    <t>NOMBRE DEL PRODUCTO</t>
+  </si>
+  <si>
+    <t>DIRECTORIO</t>
+  </si>
+  <si>
+    <t>AÑO</t>
+  </si>
+  <si>
+    <t>AUTOR 1</t>
+  </si>
+  <si>
+    <t>AUTOR 2</t>
+  </si>
+  <si>
+    <t>AUTOR 3</t>
+  </si>
+  <si>
+    <t>AUTOR 4</t>
+  </si>
+  <si>
+    <t>AUTOR 5</t>
+  </si>
+  <si>
+    <t>DESCRIPCION</t>
+  </si>
+  <si>
+    <t>TIPO DE PRODUCTO</t>
+  </si>
+  <si>
+    <t>FORMATO</t>
+  </si>
+  <si>
+    <t>RESUMEN</t>
+  </si>
+  <si>
+    <t>CONTIENE ANEXOS</t>
+  </si>
+  <si>
+    <t>ANEXOS</t>
+  </si>
+  <si>
+    <t>OBSERVACIONES</t>
+  </si>
+  <si>
+    <t>PALABRAS CLAVE</t>
+  </si>
+  <si>
+    <t>P0006</t>
+  </si>
   <si>
     <t>PR0001</t>
   </si>
   <si>
-    <t>CODIGO DE PROYECTO</t>
-  </si>
-  <si>
-    <t>CODIGO DE PRODUCTO</t>
-  </si>
-  <si>
-    <t>NOMBRE DEL PRODUCTO</t>
-  </si>
-  <si>
-    <t>DIRECTORIO</t>
-  </si>
-  <si>
-    <t>AÑO</t>
-  </si>
-  <si>
-    <t>AUTOR 1</t>
-  </si>
-  <si>
-    <t>AUTOR 2</t>
-  </si>
-  <si>
-    <t>AUTOR 3</t>
-  </si>
-  <si>
-    <t>AUTOR 4</t>
-  </si>
-  <si>
-    <t>AUTOR 5</t>
-  </si>
-  <si>
-    <t>DESCRIPCION</t>
-  </si>
-  <si>
-    <t>TIPO DE PRODUCTO</t>
-  </si>
-  <si>
-    <t>FORMATO</t>
-  </si>
-  <si>
-    <t>RESUMEN</t>
-  </si>
-  <si>
-    <t>CONTIENE ANEXOS</t>
-  </si>
-  <si>
-    <t>ANEXOS</t>
-  </si>
-  <si>
-    <t>OBSERVACIONES</t>
-  </si>
-  <si>
-    <t>PALABRAS CLAVE</t>
+    <t>Informe_Red_Geodésica_consolidado_V4.pdf</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0006/02_PRODUCTOS/INFORME/Informe_Red_Geodésica_consolidado_V4.pdf</t>
+  </si>
+  <si>
+    <t>Unión Temporal Colombo Canadiense La Mojana</t>
   </si>
   <si>
     <t>NA</t>
   </si>
   <si>
-    <t>P0006</t>
-  </si>
-  <si>
-    <t>Informe red geodésica proyecto La Mojana</t>
-  </si>
-  <si>
-    <t>Unión Temporal Colombo Canadiense La Mojana</t>
-  </si>
-  <si>
-    <t>En este informe se describe el proceso llevado a cabo para la construcción de la RED GEODÉSICA para la zona de La Mojana, ubicada dentro de la llanura inundable de los ríos Cauca, San Jorge y Magdalena. El proyecto se localiza en los municipios de Magangué y Pinillos, departamento de Bolívar; San Pedro, San Benito Abad, Sucre, San Marcos, Bajo Grande y Achí, departamento de Sucre; Buenavista, Ayapel y Pueblo Nuevo, departamento de Córdoba; Nechí y Caucasia, departamento de Antioquia. Se enmarca dentro de la latitud 7°44’ y 9°28’ norte y longitud 74°28’ y 75°21’ oeste. Cubre un área aproximada de 1’100.000 hectáreas con una altura promedio de 100 metros sobre el Nivel medio del mar (SNMM). En este informe se describen los recursos, metodologías, la recopilación de información, exploración de vértices geodésicos, diseño de la red geodésica, materialización de nuevos vértices, determinación de las estaciones de la red, cálculos, ejes y control de precisión.</t>
+    <t xml:space="preserve">El documento titulado "Informe Red Geodésica Consolidado V4" presenta un análisis exhaustivo del desarrollo del Proyecto La Mojana, ejecutado por la Unión Temporal Colombo Canadiense. Este informe se enmarca en el contrato de consultoría N° 045 de 2013 y tiene como objetivo principal la materialización y determinación de una red geodésica que garantice la precisión en la ubicación y nivelación de puntos estratégicos en la región de La Mojana, que abarca varios municipios de los departamentos de Sucre y Córdoba en Colombia. En el documento se describe el contexto geográfico del proyecto, incluyendo la identificación de áreas específicas donde se llevó a cabo el estudio. Se mencionan los municipios de Sincelejo, Magangué y Montería, entre otros, como puntos focales de la red geodésica. Se expone el enfoque metodológico adoptado para la recopilación de información geodésica existente, la exploración de vértices geodésicos y la materialización de nuevos puntos de nivelación (Nps). Se destaca la importancia de la estabilidad y confiabilidad de los sitios seleccionados para la instalación de los vértices, así como la necesidad de garantizar la perdurabilidad de los mismos. Se analizan las características de las redes geodésicas, incluyendo la descripción de las líneas y vértices existentes, así como la necesidad de nuevas determinaciones. Se presentan los resultados de la exploración de la Red pasiva Magna-Sirgas y la Red Magna ECO, que son fundamentales para el posicionamiento geodésico en la región. Se detalla el proceso de cálculo y ajuste de las redes horizontal y vertical, incluyendo la nivelación geométrica diferencial y la determinación de coordenadas. Se menciona el uso de software especializado para el procesamiento de datos y la generación de informes. </t>
   </si>
   <si>
     <t>Informe</t>
@@ -116,29 +119,59 @@
     <t>pdf</t>
   </si>
   <si>
-    <t>La Red Geodésica del proyecto La Mojana, está referida al Marco Nacional de Referencia MAGNA-SIRGAS, a la Red Nacional de Referencia Vertical y a la Red Gravimétrica Nacional, de acuerdo a lo establecido por el Instituto Geográfico Agustín Codazzi (IGAC). La Red Geodésica del proyecto se compone de una Red Horizontal y una Red Vertical integradas. El proceso de construcción se desarrolló con las siguientes etapas: 1. Recopilación de la información geodésica existente en el área del proyecto; 2. Exploración de vértices geodésicos de la Red pasiva, Nps (Puntos de Nivelación), estaciones gravimétricas; 3. Diseño de la Red Geodésica; 4. Materialización de los nuevos vértices y recuperación de los existentes de Redes Nacionales; 5. Determinación de las Estaciones de la Red Geodésica; 6. Cálculos y Ajustes; y 7. Controles de Precisión. En síntesis, la red geodésica reúne las especificaciones de calidad y precisión para soportar la georreferenciación final de los datos LIDAR, la batimetría y el modelo continuo, que sirve para garantizar que estos productos cumplan con un Error medio Cuadrado (RMSE) menor o igual a 10 cm.</t>
+    <t>El "Informe Red Geodésica Consolidado V4" presenta resultados significativos sobre la implementación de la red geodésica en el Proyecto La Mojana, que abarca áreas de los departamentos de Sucre y Córdoba en Colombia. En donde se identificaron y materializaron nuevos puntos de nivelación (Nps) para garantizar circuitos cerrados en la red vertical. Se encontraron 10 vértices aptos para ocupación de un total de 20 explorados en la Red pasiva Magna-Sirgas. Más del 60% de las líneas de nivelación del IGAC se encontraban destruidas, lo que llevó a la necesidad de re-materialización o sustitución de estas líneas para asegurar la continuidad de la red. Se realizó un ajuste de las observaciones de nivelación, cumpliendo con el estándar de precisión de ±4mm√K, lo que valida la calidad de los datos obtenidos y su vinculación a la Red Nacional Vertical. Se determinó el funcionamiento de tres estaciones permanentes de la Red Magna ECO, ubicadas en Sincelejo, Magangué y Montería, que son fundamentales para el monitoreo continuo de la red geodésica. Se aplicaron métodos de nivelación geométrica diferencial y se utilizaron software especializados para el procesamiento de datos, lo que permitió obtener resultados precisos y confiables. Se concluye que la red geodésica del Proyecto La Mojana se ha establecido con éxito, integrando tanto la red horizontal como la vertical, lo que proporciona una base sólida para futuras mediciones y estudios geodésicos en la región. La re-materialización de los vértices y la recuperación de las líneas de nivelación son esenciales para mantener la integridad y funcionalidad de la red geodésica. Se recomienda la implementación de un programa de mantenimiento regular para las estaciones y líneas de nivelación, así como la actualización continua de los datos geodésicos para asegurar su relevancia y precisión.</t>
   </si>
   <si>
     <t>SI</t>
   </si>
   <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0006/02_PRODUCTOS/INFORME/ANEXOS/</t>
+  </si>
+  <si>
     <t>Este proyecto fue unos de los insumos principales para el levantamiento de la información LIDAR y batimetrías, la construcción del MDT para La Mojana, verificación de los resultados de las modelaciones hidrodinámicas y evaluación de alternativas.</t>
   </si>
   <si>
     <t>Magangué, Pinillos, San Pedro, San Benito Abad, Sucre, San Marcos, Bajo Grande, Achí, Buenavista, Ayapel, Pueblo Nuevo, Nechí, Caucasia, red geodésica, topografía, La Mojana, red horizontal, red vertical, vértices geodésicos, MDT, LIDAR.</t>
   </si>
   <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0006/02_PRODUCTOS/INFORME/Informe_Red_Geodésica_consolidado_V4.pdf</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0006/02_PRODUCTOS/INFORME/ANEXOS/</t>
+    <t>PR0002</t>
+  </si>
+  <si>
+    <t>GRAV. LA MOJANA.doc</t>
+  </si>
+  <si>
+    <t>doc</t>
+  </si>
+  <si>
+    <t>PR0003</t>
+  </si>
+  <si>
+    <t>IGAC-05-12-2013 Productos entregables.pdf</t>
+  </si>
+  <si>
+    <t>PR0004</t>
+  </si>
+  <si>
+    <t>Control terrestre.docx</t>
+  </si>
+  <si>
+    <t>docx</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0006/02_PRODUCTOS/INFORME/ANEXOS/8.1 RESULTADOS/8.1.3.GRAVIMETRIA/GRAV. LA MOJANA.doc</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0006/02_PRODUCTOS/INFORME/ANEXOS/8.1 RESULTADOS/8.1.3.GRAVIMETRIA/IGAC-05-12-2013 Productos entregables.pdf</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0006/02_PRODUCTOS/INFORME/ANEXOS/8.1 RESULTADOS/8.1.4 CONTROL TERRESTRE (FOTOCONTROL)/Control terrestre.docx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,16 +185,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -169,15 +214,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -185,9 +265,6 @@
   <dxfs count="22">
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -512,6 +589,9 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -534,26 +614,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R2" totalsRowShown="0" dataDxfId="0" headerRowBorderDxfId="21" tableBorderDxfId="20" totalsRowBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R5" totalsRowShown="0" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{0EB386ED-25C4-4E98-8607-7E1DEB7DDB25}" name="CODIGO DE PROYECTO" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{A2B4539E-FF4A-4F1D-84B8-31E807539DC0}" name="CODIGO DE PRODUCTO" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{36C4733C-CF76-49CB-8960-27BAC0F20B8C}" name="NOMBRE DEL PRODUCTO" dataDxfId="16"/>
-    <tableColumn id="16" xr3:uid="{A9EE677D-89BE-46F8-9F56-CDF846BFED90}" name="DIRECTORIO" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{84BE1EF6-1951-4F5F-B928-ECD94B80B108}" name="AÑO" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{120C67DA-098C-4C43-9D35-DC1EC564158C}" name="AUTOR 1" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{4134684B-4574-4B5E-858F-5DF13748C3D4}" name="AUTOR 2" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{6636B1CE-48D4-474F-9E69-B0147F98E56A}" name="AUTOR 3" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{A785369F-BAB6-4525-BF7E-79059FDB08FA}" name="AUTOR 4" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{DD501A71-0B82-4002-A7D3-B03D0BD64366}" name="AUTOR 5" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{09EBAF47-1419-432D-B99C-5C7FF18696C7}" name="DESCRIPCION" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{40F29E93-00E0-47EA-AF36-91914620CA4E}" name="TIPO DE PRODUCTO" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{A9C5F90F-7224-4707-8B96-A03FEC01F531}" name="FORMATO" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{F4F0116A-DBB0-4CF0-81C2-08E9870DA599}" name="RESUMEN" dataDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{52F39B70-3383-437B-BDD0-78B7C6344B54}" name="CONTIENE ANEXOS" dataDxfId="4" dataCellStyle="Hipervínculo"/>
-    <tableColumn id="15" xr3:uid="{C8153761-218F-4F48-8D3C-3D901A0B2064}" name="ANEXOS" dataDxfId="3"/>
-    <tableColumn id="17" xr3:uid="{6024A4C9-2087-4496-BE27-B45D9C0DFD5A}" name="OBSERVACIONES" dataDxfId="2" dataCellStyle="Hipervínculo"/>
-    <tableColumn id="18" xr3:uid="{445C282B-F55F-48A3-B48E-9ED039D137ED}" name="PALABRAS CLAVE" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{0EB386ED-25C4-4E98-8607-7E1DEB7DDB25}" name="CODIGO DE PROYECTO" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{A2B4539E-FF4A-4F1D-84B8-31E807539DC0}" name="CODIGO DE PRODUCTO" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{36C4733C-CF76-49CB-8960-27BAC0F20B8C}" name="NOMBRE DEL PRODUCTO" dataDxfId="15"/>
+    <tableColumn id="16" xr3:uid="{A9EE677D-89BE-46F8-9F56-CDF846BFED90}" name="DIRECTORIO" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{84BE1EF6-1951-4F5F-B928-ECD94B80B108}" name="AÑO" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{120C67DA-098C-4C43-9D35-DC1EC564158C}" name="AUTOR 1" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{4134684B-4574-4B5E-858F-5DF13748C3D4}" name="AUTOR 2" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{6636B1CE-48D4-474F-9E69-B0147F98E56A}" name="AUTOR 3" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{A785369F-BAB6-4525-BF7E-79059FDB08FA}" name="AUTOR 4" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{DD501A71-0B82-4002-A7D3-B03D0BD64366}" name="AUTOR 5" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{09EBAF47-1419-432D-B99C-5C7FF18696C7}" name="DESCRIPCION" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{40F29E93-00E0-47EA-AF36-91914620CA4E}" name="TIPO DE PRODUCTO" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{A9C5F90F-7224-4707-8B96-A03FEC01F531}" name="FORMATO" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{F4F0116A-DBB0-4CF0-81C2-08E9870DA599}" name="RESUMEN" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{52F39B70-3383-437B-BDD0-78B7C6344B54}" name="CONTIENE ANEXOS" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{C8153761-218F-4F48-8D3C-3D901A0B2064}" name="ANEXOS" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{6024A4C9-2087-4496-BE27-B45D9C0DFD5A}" name="OBSERVACIONES" dataDxfId="1"/>
+    <tableColumn id="18" xr3:uid="{445C282B-F55F-48A3-B48E-9ED039D137ED}" name="PALABRAS CLAVE" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -822,10 +902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -847,72 +927,72 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
-      </c>
-      <c r="R1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="E2" s="1">
         <v>2014</v>
@@ -921,41 +1001,131 @@
         <v>22</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+    </row>
+    <row r="4" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -967,15 +1137,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010097FB7C5121AAD04EA5DBB516CB842770" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ca6bde7a5d319871883c00f261789bac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3277f09b-73d6-4795-b7e6-f63d7d60cc69" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6422850a7e45dad78806fd17bfbce0a" ns2:_="">
     <xsd:import namespace="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
@@ -1119,15 +1280,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1143,4 +1305,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/P0006/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0006/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28521"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0006/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{B29F4142-AB58-402A-8DBE-4A1C5839502A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02F36A39-7215-45C0-9803-B24E70657762}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="13_ncr:1_{B29F4142-AB58-402A-8DBE-4A1C5839502A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9941F5E-F0C7-4966-9537-85CADB38ABE3}"/>
   <bookViews>
     <workbookView xWindow="4605" yWindow="1485" windowWidth="18435" windowHeight="6690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="57">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -140,38 +140,80 @@
     <t>GRAV. LA MOJANA.doc</t>
   </si>
   <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0006/02_PRODUCTOS/INFORME/ANEXOS/8.1 RESULTADOS/8.1.3.GRAVIMETRIA/GRAV. LA MOJANA.doc</t>
+  </si>
+  <si>
+    <t>IGAC</t>
+  </si>
+  <si>
+    <t>El documento presenta un oficio realizado por el Instituto Nacional Agustín Codazzi respondiendo a la solicitud del contratista del proyecto en donde solicita el valor de la gravedad referida al IGSN71, RMS de ajuste e informe del proyecto</t>
+  </si>
+  <si>
     <t>doc</t>
   </si>
   <si>
+    <t>El documento presenta un oficio realizado por el Instituto Nacional Agustín Codazzi respondiendo a la solicitud del contratista del proyecto en donde solicita el valor de la gravedad referida al IGSN71, RMS de ajuste e informe del proyecto. En donde se presenta el método para obtención de la gravimetría, se menciona la estación referenciada SIGNAR de tercer orden (26-BL-3) y se realiza el ajuste por la influencia de las mareas. Se presenta la escala de gravímetro y la tabla de resultados</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0006/02_PRODUCTOS/INFORME/ANEXOS/8.1 RESULTADOS/8.1.3.GRAVIMETRIA</t>
+  </si>
+  <si>
+    <t>El informe es relevante para la toma de decisiones ya que es un insumo para el estudio gravimétrico del proyecto</t>
+  </si>
+  <si>
+    <t>Gravimetría, IGAC, gravedad relativa, Lacoste &amp; Romberg G46</t>
+  </si>
+  <si>
     <t>PR0003</t>
   </si>
   <si>
     <t>IGAC-05-12-2013 Productos entregables.pdf</t>
   </si>
   <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0006/02_PRODUCTOS/INFORME/ANEXOS/8.1 RESULTADOS/8.1.3.GRAVIMETRIA/IGAC-05-12-2013 Productos entregables.pdf</t>
+  </si>
+  <si>
+    <t>El documento presenta los resultados del estudio de gravimetría para la región de la mojana siguiendo un circuito planteado en el proyecto</t>
+  </si>
+  <si>
+    <t>El documento presenta los resultados del estudio de gravimetría para la región de la mojana siguiendo un circuito planteado en el proyecto. En donde se analizan los sectores de San Marcos, Majagual y Caucasia</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Gravimetría, IGAC, gravedad relativa, Lacoste &amp; Romberg G46, San Marcos, Majagual, Caucasia</t>
+  </si>
+  <si>
     <t>PR0004</t>
   </si>
   <si>
     <t>Control terrestre.docx</t>
   </si>
   <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0006/02_PRODUCTOS/INFORME/ANEXOS/8.1 RESULTADOS/8.1.4 CONTROL TERRESTRE (FOTOCONTROL)/Control terrestre.docx</t>
+  </si>
+  <si>
+    <t>Este documento presenta un análisis detallado del control terrestre mediante sistemas de posicionamiento global por satélite (GPS) en Colombia, específicamente en el marco del Sistema Geocéntrico Nacional de Referencia conocido como MAGNA, que funciona en conjunto con el Sistema de Referencia Geocéntrico para las Américas (SIRGAS). El estudio se lleva a cabo en diversas áreas del país, abarcando múltiples zonas, municipios y departamentos, aunque el documento no menciona lugares específicos, enfatiza la aplicabilidad del sistema MAGNA-SIRGAS a nivel nacional.</t>
+  </si>
+  <si>
     <t>docx</t>
   </si>
   <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0006/02_PRODUCTOS/INFORME/ANEXOS/8.1 RESULTADOS/8.1.3.GRAVIMETRIA/GRAV. LA MOJANA.doc</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0006/02_PRODUCTOS/INFORME/ANEXOS/8.1 RESULTADOS/8.1.3.GRAVIMETRIA/IGAC-05-12-2013 Productos entregables.pdf</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0006/02_PRODUCTOS/INFORME/ANEXOS/8.1 RESULTADOS/8.1.4 CONTROL TERRESTRE (FOTOCONTROL)/Control terrestre.docx</t>
+    <t>El principal objetivo de este documento es describir y documentar el proceso de control terrestre a través de la ocupación y posicionamiento de puntos geodésicos, garantizando la precisión de las coordenadas obtenidas, ya sea en términos geocéntricos (X, Y, Z) o geodésicos (φ, λ, h). Este proceso facilita la implementación de sistemas de referencia geodésica precisa y fundamenta la integridad de los datos obtenidos para su uso en diversas aplicaciones geográficas y cartográficas. Este se basa en una metodología estructurada proporcionada por el Instituto Geográfico Agustín Codazzi (IGAC). En donde la ocupación se realizó entre el 20 de junio y el 28 de julio de 2013, utilizando múltiples receptores GPS, como Trimble y Topcon, en modo estático diferencial. Se establecieron requisitos de tiempo de posicionamiento superior a 45 minutos y una distancia menor a 100 km entre puntos, con condiciones atmosféricas óptimas. El procesamiento de datos se llevó a cabo mediante un análisis estadístico donde se evaluaron residuales para cada vector dentro de un ajuste libre. Esto permitió categorizar los vectores en función de su calidad y precisión. Se usa el método del modelo geoidal GEOCOL2004 para el cálculo de alturas, con correcciones implementadas a través de mínimos cuadrados para mejorar la precisión de las coordenadas. Por último se elaboraron documentos que incluyen un "Esquema de Ocupación de los Puntos", un "Informe de Ajuste de Red" y un "Informe de Procesamiento de Líneas Base", donde se describe la calidad de los ajustes realizados y se presentan las estadísticas pertinentes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El documento es poco relevante para la toma de decisiones ya que no cuenta con resultados sino solo parámetros </t>
+  </si>
+  <si>
+    <t>Control terrestre, posicionamiento global, GPS, MAGNA SIRGAS, geodesia, coordenadas geodésicas, fotocontrol, ajuste de red</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +233,13 @@
       <name val="Aptos Narrow"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -201,7 +250,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -253,11 +302,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,29 +626,29 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -614,7 +664,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R5" totalsRowShown="0" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R5" totalsRowShown="0" dataDxfId="21" headerRowBorderDxfId="19" tableBorderDxfId="20" totalsRowBorderDxfId="18">
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{0EB386ED-25C4-4E98-8607-7E1DEB7DDB25}" name="CODIGO DE PROYECTO" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{A2B4539E-FF4A-4F1D-84B8-31E807539DC0}" name="CODIGO DE PRODUCTO" dataDxfId="16"/>
@@ -904,16 +954,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
     <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.140625" customWidth="1"/>
     <col min="6" max="8" width="9.5703125" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="18.140625" customWidth="1"/>
@@ -925,7 +975,7 @@
     <col min="16" max="16" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -981,7 +1031,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1037,7 +1087,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="5" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -1048,84 +1098,162 @@
         <v>33</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2014</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
+      <c r="R3" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="5" customFormat="1">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2014</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="M4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
+      <c r="N4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2014</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="M5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1137,6 +1265,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010097FB7C5121AAD04EA5DBB516CB842770" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ca6bde7a5d319871883c00f261789bac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3277f09b-73d6-4795-b7e6-f63d7d60cc69" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6422850a7e45dad78806fd17bfbce0a" ns2:_="">
     <xsd:import namespace="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
@@ -1280,37 +1417,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
 </file>